--- a/reports/resnet18_23_no_MMTM/prediction/5/prediction_train_5.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/5/prediction_train_5.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
